--- a/ui-testsuite/src/main/resources/TestData/Order_Anniversary_Multiple_Reconciled_2.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Anniversary_Multiple_Reconciled_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -468,6 +468,15 @@
   </si>
   <si>
     <t xml:space="preserve">02/01/2016 </t>
+  </si>
+  <si>
+    <t>7601959556</t>
+  </si>
+  <si>
+    <t>18/08/2016</t>
+  </si>
+  <si>
+    <t>31/08/2016</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +518,16 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -901,76 +920,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="73.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="89.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="85.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="106.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="73.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="37" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="31" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="16" customWidth="1" collapsed="1"/>
-    <col min="44" max="45" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="14" style="9" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="49" max="50" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="14" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="21" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="68" max="70" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="71" max="72" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="89.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="85.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="106.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="12" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="44" max="45" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="9" width="14.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="57" max="58" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="68" max="70" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="71" max="72" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="75" max="75" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -1268,10 +1287,10 @@
         <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="U2" t="s">
         <v>78</v>
@@ -1346,7 +1365,7 @@
         <v>129</v>
       </c>
       <c r="AX2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AY2" t="s">
         <v>72</v>
@@ -1468,10 +1487,10 @@
         <v>125</v>
       </c>
       <c r="S3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -1546,7 +1565,7 @@
         <v>129</v>
       </c>
       <c r="AX3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AY3" t="s">
         <v>72</v>
